--- a/周学习计划.xlsx
+++ b/周学习计划.xlsx
@@ -11,27 +11,27 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主要任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -40,9 +40,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>完成编程思想</t>
@@ -53,16 +52,14 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -73,16 +70,14 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>9</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -93,16 +88,14 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>10</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -113,16 +106,14 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>11</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -133,16 +124,14 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>学习，并且记录相关</t>
@@ -153,16 +142,14 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>demo</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>到</t>
@@ -173,11 +160,10 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>javaBase</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -186,9 +172,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>完成</t>
@@ -199,16 +184,14 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>50</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>道</t>
@@ -219,16 +202,14 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>java</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>面试题，将难点记录</t>
@@ -239,21 +220,19 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t>javaBase</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，有时间看看算法</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -262,14 +241,210 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>完善报名表的分析过程，总结相关业务</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成编程思想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习，学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>13/14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并且记录相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>javaBase</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑坏了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础的情况下，再增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习报名表的业务逻辑，总结项目</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -278,9 +453,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>进一步了解爬虫相关项目，熟悉其应用领域，尝试将爬到的数据写入数据库中。看别人对爬虫的理解。</t>
@@ -291,51 +465,90 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进一步了解爬虫项目，看别人写的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>demo,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尝试在爬虫项目加入新功能。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -359,17 +572,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,7 +606,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -665,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -676,10 +901,11 @@
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="61.125" customWidth="1"/>
-    <col min="4" max="4" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,48 +918,104 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
         <v>42968</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>42974</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="42.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="1:5" ht="42.75">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:5" ht="18">
       <c r="B6" s="1"/>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>42975</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42981</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -747,7 +1029,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -760,7 +1042,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/周学习计划.xlsx
+++ b/周学习计划.xlsx
@@ -16,22 +16,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>开始时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主要任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -163,7 +163,7 @@
       </rPr>
       <t>javaBase</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -232,7 +232,7 @@
       </rPr>
       <t>，有时间看看算法</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -247,7 +247,7 @@
       </rPr>
       <t>完善报名表的分析过程，总结相关业务</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -343,15 +343,15 @@
       </rPr>
       <t>javaBase</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电脑坏了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -429,7 +429,7 @@
       </rPr>
       <t>Java</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -444,7 +444,7 @@
       </rPr>
       <t>学习报名表的业务逻辑，总结项目</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -469,7 +469,7 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -502,19 +502,199 @@
       </rPr>
       <t>尝试在爬虫项目加入新功能。</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程思想加核心技术同时反复看，多思考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程方面知识加强</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试题，尝试复习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sql,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不要求解太深</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接触并发、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、监听等请求事件</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源码，爬虫源码、动手写设计模式</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -536,12 +716,6 @@
     <font>
       <sz val="14"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -572,10 +746,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -584,16 +758,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -890,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -923,10 +1098,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>42968</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>42974</v>
       </c>
       <c r="C2" t="s">
@@ -940,8 +1115,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -951,8 +1126,8 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -962,8 +1137,8 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="42.75">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -976,14 +1151,17 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>42975</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>42981</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -992,6 +1170,9 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" s="6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8"/>
@@ -999,6 +1180,9 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
+      <c r="D9" s="6">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8"/>
@@ -1006,16 +1190,53 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9">
+        <v>42982</v>
+      </c>
+      <c r="B12" s="9">
+        <v>42988</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="7">
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1029,7 +1250,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1042,7 +1263,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/周学习计划.xlsx
+++ b/周学习计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -669,6 +669,207 @@
         <charset val="134"/>
       </rPr>
       <t>源码，爬虫源码、动手写设计模式</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成简历的编写，试着从简历中提问自己问题</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巩固</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习面试题</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接触线程池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>,servlet,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熟悉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>springmvc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源码，掌握其封装原理</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习设计模式，尝试写新的设计模式</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试题、准备撤！！！</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -746,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -762,13 +963,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1065,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1098,10 +1301,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>42968</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>42974</v>
       </c>
       <c r="C2" t="s">
@@ -1110,13 +1313,13 @@
       <c r="D2" s="4">
         <v>0.8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -1126,8 +1329,8 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1137,8 +1340,8 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="42.75">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1151,10 +1354,10 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>42975</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>42981</v>
       </c>
       <c r="C7" t="s">
@@ -1195,14 +1398,17 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>42982</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>42988</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1211,6 +1417,9 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
+      <c r="D13" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8"/>
@@ -1218,6 +1427,9 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
@@ -1225,9 +1437,53 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
+      <c r="D15" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7">
+        <v>42989</v>
+      </c>
+      <c r="B17" s="10">
+        <v>42995</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>

--- a/周学习计划.xlsx
+++ b/周学习计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -870,6 +870,88 @@
         <charset val="134"/>
       </rPr>
       <t>面试题、准备撤！！！</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生了“事故”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编写简历，试着去完善自己，手上的事不要丢</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习一下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，多总结</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学会将多种事分开，做到两者不相关</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想好去处。。。。。。。。。。。。。。</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -947,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -963,15 +1045,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1268,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1301,10 +1386,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
+      <c r="A2" s="9">
         <v>42968</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>42974</v>
       </c>
       <c r="C2" t="s">
@@ -1318,46 +1403,46 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4">
         <v>0.5</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4">
         <v>0.1</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="42.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>0.2</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>42975</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>42981</v>
       </c>
       <c r="C7" t="s">
@@ -1368,8 +1453,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1378,8 +1463,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1388,8 +1473,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1398,10 +1483,10 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <v>42982</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>42988</v>
       </c>
       <c r="C12" t="s">
@@ -1412,8 +1497,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -1422,8 +1507,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -1432,8 +1517,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -1441,47 +1526,90 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7">
+    <row r="17" spans="1:5">
+      <c r="A17" s="9">
         <v>42989</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>42995</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="E17" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>22</v>
       </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7">
+        <v>42996</v>
+      </c>
+      <c r="B23" s="7">
+        <v>43002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="E2:E5"/>
@@ -1490,7 +1618,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周学习计划.xlsx
+++ b/周学习计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -952,6 +952,102 @@
         <charset val="134"/>
       </rPr>
       <t>想好去处。。。。。。。。。。。。。。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>继续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习，看人生的智慧</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偶尔思考一下自己想要什么</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看点面试题</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>spring,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看完</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1045,18 +1141,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1353,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1386,10 +1482,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>42968</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>42974</v>
       </c>
       <c r="C2" t="s">
@@ -1398,51 +1494,51 @@
       <c r="D2" s="4">
         <v>0.8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4">
         <v>0.5</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4">
         <v>0.1</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="42.75">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>0.2</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>42975</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>42981</v>
       </c>
       <c r="C7" t="s">
@@ -1453,8 +1549,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1463,8 +1559,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1473,8 +1569,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1483,10 +1579,10 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>42982</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>42988</v>
       </c>
       <c r="C12" t="s">
@@ -1497,8 +1593,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -1507,8 +1603,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -1517,8 +1613,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -1527,56 +1623,56 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>42989</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="10">
         <v>42995</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="11"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7">
+      <c r="A23" s="10">
         <v>42996</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="10">
         <v>43002</v>
       </c>
       <c r="C23" t="s">
@@ -1584,40 +1680,83 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" t="s">
         <v>25</v>
       </c>
+      <c r="D24" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" t="s">
         <v>26</v>
       </c>
+      <c r="D25" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>27</v>
       </c>
+      <c r="D26" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7">
+        <v>43003</v>
+      </c>
+      <c r="B28" s="7">
+        <v>43009</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="E17:E21"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周学习计划.xlsx
+++ b/周学习计划.xlsx
@@ -16,22 +16,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>开始时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主要任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -163,7 +163,7 @@
       </rPr>
       <t>javaBase</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -232,7 +232,7 @@
       </rPr>
       <t>，有时间看看算法</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -247,7 +247,7 @@
       </rPr>
       <t>完善报名表的分析过程，总结相关业务</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -343,15 +343,15 @@
       </rPr>
       <t>javaBase</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原因</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>电脑坏了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -429,7 +429,7 @@
       </rPr>
       <t>Java</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -444,7 +444,7 @@
       </rPr>
       <t>学习报名表的业务逻辑，总结项目</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -469,7 +469,7 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -502,7 +502,7 @@
       </rPr>
       <t>尝试在爬虫项目加入新功能。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -535,7 +535,7 @@
       </rPr>
       <t>线程方面知识加强</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -604,7 +604,7 @@
       </rPr>
       <t>不要求解太深</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -637,7 +637,7 @@
       </rPr>
       <t>、监听等请求事件</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -670,7 +670,7 @@
       </rPr>
       <t>源码，爬虫源码、动手写设计模式</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -685,7 +685,7 @@
       </rPr>
       <t>完成简历的编写，试着从简历中提问自己问题</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -736,7 +736,7 @@
       </rPr>
       <t>复习面试题</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -787,7 +787,7 @@
       </rPr>
       <t>源码，掌握其封装原理</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -838,7 +838,7 @@
       </rPr>
       <t>复习设计模式，尝试写新的设计模式</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -871,11 +871,11 @@
       </rPr>
       <t>面试题、准备撤！！！</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>发生了“事故”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -890,7 +890,7 @@
       </rPr>
       <t>编写简历，试着去完善自己，手上的事不要丢</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -923,7 +923,7 @@
       </rPr>
       <t>，多总结</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -938,7 +938,7 @@
       </rPr>
       <t>学会将多种事分开，做到两者不相关</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -953,7 +953,7 @@
       </rPr>
       <t>想好去处。。。。。。。。。。。。。。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -986,7 +986,7 @@
       </rPr>
       <t>复习，看人生的智慧</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1001,7 +1001,7 @@
       </rPr>
       <t>偶尔思考一下自己想要什么</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1016,7 +1016,7 @@
       </rPr>
       <t>看点面试题</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1049,19 +1049,103 @@
       </rPr>
       <t>看完</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写简历</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及面试技术</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适当的休息</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看新技术</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1127,8 +1211,8 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1137,7 +1221,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1147,12 +1231,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1449,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1719,6 +1803,9 @@
       <c r="C28" t="s">
         <v>28</v>
       </c>
+      <c r="D28" s="6">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8"/>
@@ -1726,6 +1813,9 @@
       <c r="C29" t="s">
         <v>29</v>
       </c>
+      <c r="D29" s="6">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8"/>
@@ -1733,6 +1823,9 @@
       <c r="C30" t="s">
         <v>30</v>
       </c>
+      <c r="D30" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8"/>
@@ -1740,11 +1833,53 @@
       <c r="C31" t="s">
         <v>31</v>
       </c>
+      <c r="D31" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7">
+        <v>43017</v>
+      </c>
+      <c r="B33" s="7">
+        <v>43023</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
@@ -1752,13 +1887,8 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1772,7 +1902,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1785,7 +1915,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>